--- a/data/trans_bre/P41_R-Urba-trans_bre.xlsx
+++ b/data/trans_bre/P41_R-Urba-trans_bre.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L11"/>
+  <dimension ref="A1:P12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -527,6 +527,10 @@
     <col width="14" customWidth="1" min="10" max="10"/>
     <col width="14" customWidth="1" min="11" max="11"/>
     <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+    <col width="14" customWidth="1" min="15" max="15"/>
+    <col width="14" customWidth="1" min="16" max="16"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -545,15 +549,19 @@
       <c r="E1" s="3" t="n"/>
       <c r="F1" s="3" t="n"/>
       <c r="G1" s="3" t="n"/>
-      <c r="H1" s="3" t="inlineStr">
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="inlineStr">
         <is>
           <t>Brecha de género relativa</t>
         </is>
       </c>
-      <c r="I1" s="3" t="n"/>
-      <c r="J1" s="3" t="n"/>
       <c r="K1" s="3" t="n"/>
       <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
+      <c r="O1" s="3" t="n"/>
+      <c r="P1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -580,32 +588,52 @@
       </c>
       <c r="G2" s="3" t="inlineStr">
         <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
           <t>Mz1</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
         <is>
           <t>M1</t>
         </is>
       </c>
-      <c r="I2" s="3" t="inlineStr">
+      <c r="K2" s="3" t="inlineStr">
         <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="J2" s="3" t="inlineStr">
+      <c r="L2" s="3" t="inlineStr">
         <is>
           <t>M3</t>
         </is>
       </c>
-      <c r="K2" s="3" t="inlineStr">
+      <c r="M2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
         </is>
       </c>
-      <c r="L2" s="3" t="inlineStr">
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="O2" s="3" t="inlineStr">
         <is>
           <t>Mz1</t>
+        </is>
+      </c>
+      <c r="P2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
         </is>
       </c>
     </row>
@@ -622,6 +650,10 @@
       <c r="J3" s="2" t="n"/>
       <c r="K3" s="2" t="n"/>
       <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+      <c r="O3" s="2" t="n"/>
+      <c r="P3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -636,52 +668,72 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>7,21</t>
+          <t>0,93</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>1,35</t>
+          <t>-2,45</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>7,1</t>
+          <t>1,6</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>2,16</t>
+          <t>-0,49</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>1,3</t>
+          <t>-1,96</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>33,52%</t>
+          <t>-3,55</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>5,38%</t>
+          <t>0,95</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>33,53%</t>
+          <t>10,64%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>8,81%</t>
+          <t>-21,01%</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>4,04%</t>
+          <t>16,44%</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>-4,41%</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>-21,01%</t>
+        </is>
+      </c>
+      <c r="O4" s="2" t="inlineStr">
+        <is>
+          <t>-23,29%</t>
+        </is>
+      </c>
+      <c r="P4" s="2" t="inlineStr">
+        <is>
+          <t>12,74%</t>
         </is>
       </c>
     </row>
@@ -694,52 +746,72 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-0,69; 13,71</t>
+          <t>-2,86; 3,81</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-8,81; 9,49</t>
+          <t>-8,24; 1,4</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-0,9; 14,35</t>
+          <t>-3,12; 5,0</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-7,82; 9,29</t>
+          <t>-5,45; 3,43</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-7,79; 7,78</t>
+          <t>-12,11; 2,47</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-3,52; 78,58</t>
+          <t>-7,3; -0,12</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-29,16; 48,24</t>
+          <t>-2,28; 3,4</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-5,93; 83,87</t>
+          <t>-26,69; 53,04</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>-25,59; 47,47</t>
+          <t>-49,91; 16,56</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>-20,95; 27,51</t>
+          <t>-25,14; 68,5</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>-38,18; 38,45</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>-67,18; 43,18</t>
+        </is>
+      </c>
+      <c r="O5" s="2" t="inlineStr">
+        <is>
+          <t>-41,65; -0,47</t>
+        </is>
+      </c>
+      <c r="P5" s="2" t="inlineStr">
+        <is>
+          <t>-25,32; 55,62</t>
         </is>
       </c>
     </row>
@@ -756,52 +828,72 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>2,07</t>
+          <t>-4,47</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>1,81</t>
+          <t>-5,62</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>-7,31</t>
+          <t>-8,46</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>-5,11</t>
+          <t>-7,68</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>14,08</t>
+          <t>1,5</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>5,67%</t>
+          <t>3,26</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>4,62%</t>
+          <t>-0,2</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>-17,72%</t>
+          <t>-28,48%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>-12,13%</t>
+          <t>-31,08%</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>37,09%</t>
+          <t>-42,51%</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>-36,46%</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>14,9%</t>
+        </is>
+      </c>
+      <c r="O6" s="2" t="inlineStr">
+        <is>
+          <t>19,6%</t>
+        </is>
+      </c>
+      <c r="P6" s="2" t="inlineStr">
+        <is>
+          <t>-1,85%</t>
         </is>
       </c>
     </row>
@@ -814,52 +906,72 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-7,31; 11,6</t>
+          <t>-8,51; -0,45</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-8,66; 13,9</t>
+          <t>-11,02; -0,81</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-16,15; 1,25</t>
+          <t>-13,72; -3,83</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-14,89; 4,77</t>
+          <t>-13,53; -3,22</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>1,31; 28,61</t>
+          <t>-4,53; 6,55</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-17,77; 36,77</t>
+          <t>-4,02; 10,35</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-19,95; 42,67</t>
+          <t>-6,25; 5,4</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-36,12; 3,44</t>
+          <t>-47,29; -3,4</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>-31,22; 12,97</t>
+          <t>-51,24; -5,23</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>3,16; 95,32</t>
+          <t>-58,02; -21,0</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>-53,47; -15,6</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>-32,39; 99,16</t>
+        </is>
+      </c>
+      <c r="O7" s="2" t="inlineStr">
+        <is>
+          <t>-19,8; 80,32</t>
+        </is>
+      </c>
+      <c r="P7" s="2" t="inlineStr">
+        <is>
+          <t>-44,9; 66,62</t>
         </is>
       </c>
     </row>
@@ -876,50 +988,70 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>15,92</t>
+          <t>3,1</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>-1,82</t>
+          <t>-1,33</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>3,03</t>
+          <t>-2,39</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>10,99</t>
+          <t>1,46</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
+          <t>4,45</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
           <t>—</t>
         </is>
       </c>
-      <c r="H8" s="2" t="inlineStr">
-        <is>
-          <t>54,98%</t>
-        </is>
-      </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>-5,44%</t>
+          <t>—</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>8,97%</t>
+          <t>34,46%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>35,22%</t>
+          <t>-13,74%</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>-20,52%</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>13,34%</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>69,65%</t>
+        </is>
+      </c>
+      <c r="O8" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="P8" s="2" t="inlineStr">
         <is>
           <t>—%</t>
         </is>
@@ -934,50 +1066,70 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-7,56; 37,05</t>
+          <t>-5,7; 10,14</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-26,91; 22,79</t>
+          <t>-8,92; 5,3</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-17,02; 22,1</t>
+          <t>-9,27; 4,6</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-9,05; 28,88</t>
+          <t>-6,27; 8,2</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
+          <t>-3,31; 11,86</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="H9" s="2" t="inlineStr">
-        <is>
-          <t>-25,54; 216,62</t>
-        </is>
-      </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-60,59; 103,54</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-40,92; 89,71</t>
+          <t>-43,56; 204,07</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>-23,12; 130,68</t>
+          <t>-64,16; 82,38</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>-60,89; 58,64</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>-43,64; 110,81</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>-37,75; 399,58</t>
+        </is>
+      </c>
+      <c r="O9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="P9" s="2" t="inlineStr">
         <is>
           <t>—; —</t>
         </is>
@@ -996,52 +1148,72 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>5,29</t>
+          <t>-1,01</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>0,12</t>
+          <t>-3,61</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>0,04</t>
+          <t>-2,88</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>-0,89</t>
+          <t>-3,18</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>4,28</t>
+          <t>0,11</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>18,48%</t>
+          <t>-2,12</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>0,37%</t>
+          <t>0,64</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>0,12%</t>
+          <t>-8,76%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>-2,72%</t>
+          <t>-25,82%</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>12,82%</t>
+          <t>-20,56%</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>-21,08%</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>1,15%</t>
+        </is>
+      </c>
+      <c r="O10" s="2" t="inlineStr">
+        <is>
+          <t>-13,59%</t>
+        </is>
+      </c>
+      <c r="P10" s="2" t="inlineStr">
+        <is>
+          <t>7,8%</t>
         </is>
       </c>
     </row>
@@ -1054,64 +1226,91 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-0,37; 11,77</t>
+          <t>-3,33; 1,42</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-7,84; 6,68</t>
+          <t>-7,39; -0,6</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-6,17; 6,09</t>
+          <t>-5,8; -0,11</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-7,31; 4,57</t>
+          <t>-6,82; -0,43</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-1,8; 11,1</t>
+          <t>-5,75; 3,08</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-1,05; 47,19</t>
+          <t>-5,49; 1,2</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-21,65; 23,51</t>
+          <t>-1,96; 3,14</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-17,88; 22,19</t>
+          <t>-25,57; 14,45</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>-19,65; 15,47</t>
+          <t>-44,22; -4,58</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>-4,88; 38,12</t>
+          <t>-35,99; -1,01</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>-38,02; -2,53</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>-41,43; 44,94</t>
+        </is>
+      </c>
+      <c r="O11" s="2" t="inlineStr">
+        <is>
+          <t>-30,55; 8,71</t>
+        </is>
+      </c>
+      <c r="P11" s="2" t="inlineStr">
+        <is>
+          <t>-19,22; 47,06</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
       </c>
     </row>
   </sheetData>
   <mergeCells count="7">
+    <mergeCell ref="J1:P1"/>
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A4:A5"/>
-    <mergeCell ref="C1:G1"/>
-    <mergeCell ref="H1:L1"/>
+    <mergeCell ref="A10:A11"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="C1:I1"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/trans_bre/P41_R-Urba-trans_bre.xlsx
+++ b/data/trans_bre/P41_R-Urba-trans_bre.xlsx
@@ -16,7 +16,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="0.##"/>
+    <numFmt numFmtId="165" formatCode="0.##%"/>
+  </numFmts>
   <fonts count="2">
     <font>
       <name val="Calibri"/>
@@ -125,7 +128,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -138,6 +141,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -504,7 +513,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:P12"/>
+  <dimension ref="A1:P16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -666,479 +675,307 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C4" s="2" t="inlineStr">
-        <is>
-          <t>0,93</t>
-        </is>
-      </c>
-      <c r="D4" s="2" t="inlineStr">
-        <is>
-          <t>-2,45</t>
-        </is>
-      </c>
-      <c r="E4" s="2" t="inlineStr">
-        <is>
-          <t>1,6</t>
-        </is>
-      </c>
-      <c r="F4" s="2" t="inlineStr">
-        <is>
-          <t>-0,49</t>
-        </is>
-      </c>
-      <c r="G4" s="2" t="inlineStr">
-        <is>
-          <t>-1,96</t>
-        </is>
-      </c>
-      <c r="H4" s="2" t="inlineStr">
-        <is>
-          <t>-3,55</t>
-        </is>
-      </c>
-      <c r="I4" s="2" t="inlineStr">
-        <is>
-          <t>0,95</t>
-        </is>
-      </c>
-      <c r="J4" s="2" t="inlineStr">
-        <is>
-          <t>10,64%</t>
-        </is>
-      </c>
-      <c r="K4" s="2" t="inlineStr">
-        <is>
-          <t>-21,01%</t>
-        </is>
-      </c>
-      <c r="L4" s="2" t="inlineStr">
-        <is>
-          <t>16,44%</t>
-        </is>
-      </c>
-      <c r="M4" s="2" t="inlineStr">
-        <is>
-          <t>-4,41%</t>
-        </is>
-      </c>
-      <c r="N4" s="2" t="inlineStr">
-        <is>
-          <t>-21,01%</t>
-        </is>
-      </c>
-      <c r="O4" s="2" t="inlineStr">
-        <is>
-          <t>-23,29%</t>
-        </is>
-      </c>
-      <c r="P4" s="2" t="inlineStr">
-        <is>
-          <t>12,74%</t>
-        </is>
+      <c r="C4" s="5" t="n">
+        <v>7.203094731445386</v>
+      </c>
+      <c r="D4" s="5" t="n">
+        <v>2.064853154754309</v>
+      </c>
+      <c r="E4" s="5" t="n">
+        <v>7.604474507868419</v>
+      </c>
+      <c r="F4" s="5" t="n">
+        <v>3.227925434394149</v>
+      </c>
+      <c r="G4" s="5" t="n">
+        <v>-0.7917250838798184</v>
+      </c>
+      <c r="H4" s="5" t="n">
+        <v>1.296841601140741</v>
+      </c>
+      <c r="I4" s="5" t="n">
+        <v>5.142188821851349</v>
+      </c>
+      <c r="J4" s="6" t="n">
+        <v>0.3350637285616936</v>
+      </c>
+      <c r="K4" s="6" t="n">
+        <v>0.08353634303393136</v>
+      </c>
+      <c r="L4" s="6" t="n">
+        <v>0.3608478126634044</v>
+      </c>
+      <c r="M4" s="6" t="n">
+        <v>0.1359893248608043</v>
+      </c>
+      <c r="N4" s="6" t="n">
+        <v>-0.04148626373071033</v>
+      </c>
+      <c r="O4" s="6" t="n">
+        <v>0.04039796694033823</v>
+      </c>
+      <c r="P4" s="6" t="n">
+        <v>0.295156119337239</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n"/>
       <c r="B5" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C5" s="2" t="inlineStr">
-        <is>
-          <t>-2,86; 3,81</t>
-        </is>
-      </c>
-      <c r="D5" s="2" t="inlineStr">
-        <is>
-          <t>-8,24; 1,4</t>
-        </is>
-      </c>
-      <c r="E5" s="2" t="inlineStr">
-        <is>
-          <t>-3,12; 5,0</t>
-        </is>
-      </c>
-      <c r="F5" s="2" t="inlineStr">
-        <is>
-          <t>-5,45; 3,43</t>
-        </is>
-      </c>
-      <c r="G5" s="2" t="inlineStr">
-        <is>
-          <t>-12,11; 2,47</t>
-        </is>
-      </c>
-      <c r="H5" s="2" t="inlineStr">
-        <is>
-          <t>-7,3; -0,12</t>
-        </is>
-      </c>
-      <c r="I5" s="2" t="inlineStr">
-        <is>
-          <t>-2,28; 3,4</t>
-        </is>
-      </c>
-      <c r="J5" s="2" t="inlineStr">
-        <is>
-          <t>-26,69; 53,04</t>
-        </is>
-      </c>
-      <c r="K5" s="2" t="inlineStr">
-        <is>
-          <t>-49,91; 16,56</t>
-        </is>
-      </c>
-      <c r="L5" s="2" t="inlineStr">
-        <is>
-          <t>-25,14; 68,5</t>
-        </is>
-      </c>
-      <c r="M5" s="2" t="inlineStr">
-        <is>
-          <t>-38,18; 38,45</t>
-        </is>
-      </c>
-      <c r="N5" s="2" t="inlineStr">
-        <is>
-          <t>-67,18; 43,18</t>
-        </is>
-      </c>
-      <c r="O5" s="2" t="inlineStr">
-        <is>
-          <t>-41,65; -0,47</t>
-        </is>
-      </c>
-      <c r="P5" s="2" t="inlineStr">
-        <is>
-          <t>-25,32; 55,62</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C5" s="5" t="n">
+        <v>0.5719603655769683</v>
+      </c>
+      <c r="D5" s="5" t="n">
+        <v>-7.650002063544576</v>
+      </c>
+      <c r="E5" s="5" t="n">
+        <v>-0.3487733807419707</v>
+      </c>
+      <c r="F5" s="5" t="n">
+        <v>-6.030448731299143</v>
+      </c>
+      <c r="G5" s="5" t="n">
+        <v>-18.39629754894444</v>
+      </c>
+      <c r="H5" s="5" t="n">
+        <v>-6.407041341215328</v>
+      </c>
+      <c r="I5" s="5" t="n">
+        <v>-1.237770407395564</v>
+      </c>
+      <c r="J5" s="6" t="n">
+        <v>0.008350000426672166</v>
+      </c>
+      <c r="K5" s="6" t="n">
+        <v>-0.2515618963371372</v>
+      </c>
+      <c r="L5" s="6" t="n">
+        <v>-0.02362100445521914</v>
+      </c>
+      <c r="M5" s="6" t="n">
+        <v>-0.208306620877514</v>
+      </c>
+      <c r="N5" s="6" t="n">
+        <v>-0.5823562439219312</v>
+      </c>
+      <c r="O5" s="6" t="n">
+        <v>-0.1748820795500554</v>
+      </c>
+      <c r="P5" s="6" t="n">
+        <v>-0.05703319107161135</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="1" t="inlineStr">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C6" s="5" t="n">
+        <v>16.18204929730164</v>
+      </c>
+      <c r="D6" s="5" t="n">
+        <v>10.81204735458726</v>
+      </c>
+      <c r="E6" s="5" t="n">
+        <v>14.44084162144712</v>
+      </c>
+      <c r="F6" s="5" t="n">
+        <v>10.4208520897286</v>
+      </c>
+      <c r="G6" s="5" t="n">
+        <v>8.031850601839031</v>
+      </c>
+      <c r="H6" s="5" t="n">
+        <v>8.173065960764243</v>
+      </c>
+      <c r="I6" s="5" t="n">
+        <v>11.41962965428976</v>
+      </c>
+      <c r="J6" s="6" t="n">
+        <v>0.9123559370528214</v>
+      </c>
+      <c r="K6" s="6" t="n">
+        <v>0.5441698576260756</v>
+      </c>
+      <c r="L6" s="6" t="n">
+        <v>0.8586986059496886</v>
+      </c>
+      <c r="M6" s="6" t="n">
+        <v>0.5338127974211591</v>
+      </c>
+      <c r="N6" s="6" t="n">
+        <v>0.6794670911342463</v>
+      </c>
+      <c r="O6" s="6" t="n">
+        <v>0.289641785027959</v>
+      </c>
+      <c r="P6" s="6" t="n">
+        <v>0.8161225121088928</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
         <is>
           <t>Intermedio</t>
         </is>
       </c>
-      <c r="B6" s="3" t="inlineStr">
+      <c r="B7" s="3" t="inlineStr">
         <is>
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C6" s="2" t="inlineStr">
-        <is>
-          <t>-4,47</t>
-        </is>
-      </c>
-      <c r="D6" s="2" t="inlineStr">
-        <is>
-          <t>-5,62</t>
-        </is>
-      </c>
-      <c r="E6" s="2" t="inlineStr">
-        <is>
-          <t>-8,46</t>
-        </is>
-      </c>
-      <c r="F6" s="2" t="inlineStr">
-        <is>
-          <t>-7,68</t>
-        </is>
-      </c>
-      <c r="G6" s="2" t="inlineStr">
-        <is>
-          <t>1,5</t>
-        </is>
-      </c>
-      <c r="H6" s="2" t="inlineStr">
-        <is>
-          <t>3,26</t>
-        </is>
-      </c>
-      <c r="I6" s="2" t="inlineStr">
-        <is>
-          <t>-0,2</t>
-        </is>
-      </c>
-      <c r="J6" s="2" t="inlineStr">
-        <is>
-          <t>-28,48%</t>
-        </is>
-      </c>
-      <c r="K6" s="2" t="inlineStr">
-        <is>
-          <t>-31,08%</t>
-        </is>
-      </c>
-      <c r="L6" s="2" t="inlineStr">
-        <is>
-          <t>-42,51%</t>
-        </is>
-      </c>
-      <c r="M6" s="2" t="inlineStr">
-        <is>
-          <t>-36,46%</t>
-        </is>
-      </c>
-      <c r="N6" s="2" t="inlineStr">
-        <is>
-          <t>14,9%</t>
-        </is>
-      </c>
-      <c r="O6" s="2" t="inlineStr">
-        <is>
-          <t>19,6%</t>
-        </is>
-      </c>
-      <c r="P6" s="2" t="inlineStr">
-        <is>
-          <t>-1,85%</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n"/>
-      <c r="B7" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C7" s="2" t="inlineStr">
-        <is>
-          <t>-8,51; -0,45</t>
-        </is>
-      </c>
-      <c r="D7" s="2" t="inlineStr">
-        <is>
-          <t>-11,02; -0,81</t>
-        </is>
-      </c>
-      <c r="E7" s="2" t="inlineStr">
-        <is>
-          <t>-13,72; -3,83</t>
-        </is>
-      </c>
-      <c r="F7" s="2" t="inlineStr">
-        <is>
-          <t>-13,53; -3,22</t>
-        </is>
-      </c>
-      <c r="G7" s="2" t="inlineStr">
-        <is>
-          <t>-4,53; 6,55</t>
-        </is>
-      </c>
-      <c r="H7" s="2" t="inlineStr">
-        <is>
-          <t>-4,02; 10,35</t>
-        </is>
-      </c>
-      <c r="I7" s="2" t="inlineStr">
-        <is>
-          <t>-6,25; 5,4</t>
-        </is>
-      </c>
-      <c r="J7" s="2" t="inlineStr">
-        <is>
-          <t>-47,29; -3,4</t>
-        </is>
-      </c>
-      <c r="K7" s="2" t="inlineStr">
-        <is>
-          <t>-51,24; -5,23</t>
-        </is>
-      </c>
-      <c r="L7" s="2" t="inlineStr">
-        <is>
-          <t>-58,02; -21,0</t>
-        </is>
-      </c>
-      <c r="M7" s="2" t="inlineStr">
-        <is>
-          <t>-53,47; -15,6</t>
-        </is>
-      </c>
-      <c r="N7" s="2" t="inlineStr">
-        <is>
-          <t>-32,39; 99,16</t>
-        </is>
-      </c>
-      <c r="O7" s="2" t="inlineStr">
-        <is>
-          <t>-19,8; 80,32</t>
-        </is>
-      </c>
-      <c r="P7" s="2" t="inlineStr">
-        <is>
-          <t>-44,9; 66,62</t>
-        </is>
+      <c r="C7" s="5" t="n">
+        <v>2.06363376651621</v>
+      </c>
+      <c r="D7" s="5" t="n">
+        <v>0.9550790165529621</v>
+      </c>
+      <c r="E7" s="5" t="n">
+        <v>-6.981957959149105</v>
+      </c>
+      <c r="F7" s="5" t="n">
+        <v>-4.893107021657545</v>
+      </c>
+      <c r="G7" s="5" t="n">
+        <v>6.723086867957156</v>
+      </c>
+      <c r="H7" s="5" t="n">
+        <v>14.08371209907309</v>
+      </c>
+      <c r="I7" s="5" t="n">
+        <v>9.70674563687886</v>
+      </c>
+      <c r="J7" s="6" t="n">
+        <v>0.05651652312380223</v>
+      </c>
+      <c r="K7" s="6" t="n">
+        <v>0.02366539747770896</v>
+      </c>
+      <c r="L7" s="6" t="n">
+        <v>-0.1695375091033485</v>
+      </c>
+      <c r="M7" s="6" t="n">
+        <v>-0.1168905850559272</v>
+      </c>
+      <c r="N7" s="6" t="n">
+        <v>0.3094382304072079</v>
+      </c>
+      <c r="O7" s="6" t="n">
+        <v>0.371079158768163</v>
+      </c>
+      <c r="P7" s="6" t="n">
+        <v>0.4036107902112622</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="1" t="inlineStr">
-        <is>
-          <t>Rural</t>
-        </is>
-      </c>
+      <c r="A8" s="1" t="n"/>
       <c r="B8" s="3" t="inlineStr">
         <is>
-          <t>Estimación</t>
-        </is>
-      </c>
-      <c r="C8" s="2" t="inlineStr">
-        <is>
-          <t>3,1</t>
-        </is>
-      </c>
-      <c r="D8" s="2" t="inlineStr">
-        <is>
-          <t>-1,33</t>
-        </is>
-      </c>
-      <c r="E8" s="2" t="inlineStr">
-        <is>
-          <t>-2,39</t>
-        </is>
-      </c>
-      <c r="F8" s="2" t="inlineStr">
-        <is>
-          <t>1,46</t>
-        </is>
-      </c>
-      <c r="G8" s="2" t="inlineStr">
-        <is>
-          <t>4,45</t>
-        </is>
-      </c>
-      <c r="H8" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="I8" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="J8" s="2" t="inlineStr">
-        <is>
-          <t>34,46%</t>
-        </is>
-      </c>
-      <c r="K8" s="2" t="inlineStr">
-        <is>
-          <t>-13,74%</t>
-        </is>
-      </c>
-      <c r="L8" s="2" t="inlineStr">
-        <is>
-          <t>-20,52%</t>
-        </is>
-      </c>
-      <c r="M8" s="2" t="inlineStr">
-        <is>
-          <t>13,34%</t>
-        </is>
-      </c>
-      <c r="N8" s="2" t="inlineStr">
-        <is>
-          <t>69,65%</t>
-        </is>
-      </c>
-      <c r="O8" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="P8" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C8" s="5" t="n">
+        <v>-7.617676106112124</v>
+      </c>
+      <c r="D8" s="5" t="n">
+        <v>-11.47318755460729</v>
+      </c>
+      <c r="E8" s="5" t="n">
+        <v>-16.3961317664211</v>
+      </c>
+      <c r="F8" s="5" t="n">
+        <v>-14.47027709867077</v>
+      </c>
+      <c r="G8" s="5" t="n">
+        <v>-5.388661706427878</v>
+      </c>
+      <c r="H8" s="5" t="n">
+        <v>1.384128413906463</v>
+      </c>
+      <c r="I8" s="5" t="n">
+        <v>-3.519896295549715</v>
+      </c>
+      <c r="J8" s="6" t="n">
+        <v>-0.1786312522597096</v>
+      </c>
+      <c r="K8" s="6" t="n">
+        <v>-0.2496930415544084</v>
+      </c>
+      <c r="L8" s="6" t="n">
+        <v>-0.3616420798308274</v>
+      </c>
+      <c r="M8" s="6" t="n">
+        <v>-0.3065534389835616</v>
+      </c>
+      <c r="N8" s="6" t="n">
+        <v>-0.1789782688553996</v>
+      </c>
+      <c r="O8" s="6" t="n">
+        <v>0.02894297173135523</v>
+      </c>
+      <c r="P8" s="6" t="n">
+        <v>-0.116714058763822</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n"/>
       <c r="B9" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C9" s="2" t="inlineStr">
-        <is>
-          <t>-5,7; 10,14</t>
-        </is>
-      </c>
-      <c r="D9" s="2" t="inlineStr">
-        <is>
-          <t>-8,92; 5,3</t>
-        </is>
-      </c>
-      <c r="E9" s="2" t="inlineStr">
-        <is>
-          <t>-9,27; 4,6</t>
-        </is>
-      </c>
-      <c r="F9" s="2" t="inlineStr">
-        <is>
-          <t>-6,27; 8,2</t>
-        </is>
-      </c>
-      <c r="G9" s="2" t="inlineStr">
-        <is>
-          <t>-3,31; 11,86</t>
-        </is>
-      </c>
-      <c r="H9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="I9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="J9" s="2" t="inlineStr">
-        <is>
-          <t>-43,56; 204,07</t>
-        </is>
-      </c>
-      <c r="K9" s="2" t="inlineStr">
-        <is>
-          <t>-64,16; 82,38</t>
-        </is>
-      </c>
-      <c r="L9" s="2" t="inlineStr">
-        <is>
-          <t>-60,89; 58,64</t>
-        </is>
-      </c>
-      <c r="M9" s="2" t="inlineStr">
-        <is>
-          <t>-43,64; 110,81</t>
-        </is>
-      </c>
-      <c r="N9" s="2" t="inlineStr">
-        <is>
-          <t>-37,75; 399,58</t>
-        </is>
-      </c>
-      <c r="O9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="P9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C9" s="5" t="n">
+        <v>11.88960087666411</v>
+      </c>
+      <c r="D9" s="5" t="n">
+        <v>12.78302312703186</v>
+      </c>
+      <c r="E9" s="5" t="n">
+        <v>1.907757470950364</v>
+      </c>
+      <c r="F9" s="5" t="n">
+        <v>4.703853588849699</v>
+      </c>
+      <c r="G9" s="5" t="n">
+        <v>15.97731828687821</v>
+      </c>
+      <c r="H9" s="5" t="n">
+        <v>27.76541824274683</v>
+      </c>
+      <c r="I9" s="5" t="n">
+        <v>24.04633929912702</v>
+      </c>
+      <c r="J9" s="6" t="n">
+        <v>0.3716112424750148</v>
+      </c>
+      <c r="K9" s="6" t="n">
+        <v>0.3642327285658489</v>
+      </c>
+      <c r="L9" s="6" t="n">
+        <v>0.05001287770953444</v>
+      </c>
+      <c r="M9" s="6" t="n">
+        <v>0.1241423187332233</v>
+      </c>
+      <c r="N9" s="6" t="n">
+        <v>1.08107211245932</v>
+      </c>
+      <c r="O9" s="6" t="n">
+        <v>0.8967064828921651</v>
+      </c>
+      <c r="P9" s="6" t="n">
+        <v>1.452957743653219</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>Rural</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -1146,157 +983,281 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C10" s="2" t="inlineStr">
-        <is>
-          <t>-1,01</t>
-        </is>
-      </c>
-      <c r="D10" s="2" t="inlineStr">
-        <is>
-          <t>-3,61</t>
-        </is>
-      </c>
-      <c r="E10" s="2" t="inlineStr">
-        <is>
-          <t>-2,88</t>
-        </is>
-      </c>
-      <c r="F10" s="2" t="inlineStr">
-        <is>
-          <t>-3,18</t>
-        </is>
-      </c>
-      <c r="G10" s="2" t="inlineStr">
-        <is>
-          <t>0,11</t>
-        </is>
-      </c>
-      <c r="H10" s="2" t="inlineStr">
-        <is>
-          <t>-2,12</t>
-        </is>
-      </c>
-      <c r="I10" s="2" t="inlineStr">
-        <is>
-          <t>0,64</t>
-        </is>
-      </c>
-      <c r="J10" s="2" t="inlineStr">
-        <is>
-          <t>-8,76%</t>
-        </is>
-      </c>
-      <c r="K10" s="2" t="inlineStr">
-        <is>
-          <t>-25,82%</t>
-        </is>
-      </c>
-      <c r="L10" s="2" t="inlineStr">
-        <is>
-          <t>-20,56%</t>
-        </is>
-      </c>
-      <c r="M10" s="2" t="inlineStr">
-        <is>
-          <t>-21,08%</t>
-        </is>
-      </c>
-      <c r="N10" s="2" t="inlineStr">
-        <is>
-          <t>1,15%</t>
-        </is>
-      </c>
-      <c r="O10" s="2" t="inlineStr">
-        <is>
-          <t>-13,59%</t>
-        </is>
-      </c>
-      <c r="P10" s="2" t="inlineStr">
-        <is>
-          <t>7,8%</t>
-        </is>
-      </c>
+      <c r="C10" s="5" t="n">
+        <v>15.92097132371649</v>
+      </c>
+      <c r="D10" s="5" t="n">
+        <v>3.499057037250047</v>
+      </c>
+      <c r="E10" s="5" t="n">
+        <v>2.440491018678665</v>
+      </c>
+      <c r="F10" s="5" t="n">
+        <v>10.49974794349914</v>
+      </c>
+      <c r="G10" s="5" t="n">
+        <v>11.74590322957722</v>
+      </c>
+      <c r="H10" s="5" t="inlineStr"/>
+      <c r="I10" s="5" t="inlineStr"/>
+      <c r="J10" s="6" t="n">
+        <v>0.5502288769552907</v>
+      </c>
+      <c r="K10" s="6" t="n">
+        <v>0.1179487928779478</v>
+      </c>
+      <c r="L10" s="6" t="n">
+        <v>0.07039375193825337</v>
+      </c>
+      <c r="M10" s="6" t="n">
+        <v>0.3280439501965726</v>
+      </c>
+      <c r="N10" s="6" t="n">
+        <v>0.7066044951804289</v>
+      </c>
+      <c r="O10" s="6" t="inlineStr"/>
+      <c r="P10" s="6" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n"/>
       <c r="B11" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C11" s="2" t="inlineStr">
-        <is>
-          <t>-3,33; 1,42</t>
-        </is>
-      </c>
-      <c r="D11" s="2" t="inlineStr">
-        <is>
-          <t>-7,39; -0,6</t>
-        </is>
-      </c>
-      <c r="E11" s="2" t="inlineStr">
-        <is>
-          <t>-5,8; -0,11</t>
-        </is>
-      </c>
-      <c r="F11" s="2" t="inlineStr">
-        <is>
-          <t>-6,82; -0,43</t>
-        </is>
-      </c>
-      <c r="G11" s="2" t="inlineStr">
-        <is>
-          <t>-5,75; 3,08</t>
-        </is>
-      </c>
-      <c r="H11" s="2" t="inlineStr">
-        <is>
-          <t>-5,49; 1,2</t>
-        </is>
-      </c>
-      <c r="I11" s="2" t="inlineStr">
-        <is>
-          <t>-1,96; 3,14</t>
-        </is>
-      </c>
-      <c r="J11" s="2" t="inlineStr">
-        <is>
-          <t>-25,57; 14,45</t>
-        </is>
-      </c>
-      <c r="K11" s="2" t="inlineStr">
-        <is>
-          <t>-44,22; -4,58</t>
-        </is>
-      </c>
-      <c r="L11" s="2" t="inlineStr">
-        <is>
-          <t>-35,99; -1,01</t>
-        </is>
-      </c>
-      <c r="M11" s="2" t="inlineStr">
-        <is>
-          <t>-38,02; -2,53</t>
-        </is>
-      </c>
-      <c r="N11" s="2" t="inlineStr">
-        <is>
-          <t>-41,43; 44,94</t>
-        </is>
-      </c>
-      <c r="O11" s="2" t="inlineStr">
-        <is>
-          <t>-30,55; 8,71</t>
-        </is>
-      </c>
-      <c r="P11" s="2" t="inlineStr">
-        <is>
-          <t>-19,22; 47,06</t>
-        </is>
-      </c>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C11" s="5" t="n">
+        <v>-7.140107502018949</v>
+      </c>
+      <c r="D11" s="5" t="n">
+        <v>-17.79990084369707</v>
+      </c>
+      <c r="E11" s="5" t="n">
+        <v>-16.73046542499606</v>
+      </c>
+      <c r="F11" s="5" t="n">
+        <v>-8.179310124624111</v>
+      </c>
+      <c r="G11" s="5" t="n">
+        <v>-5.911540532209603</v>
+      </c>
+      <c r="H11" s="5" t="inlineStr"/>
+      <c r="I11" s="5" t="inlineStr"/>
+      <c r="J11" s="6" t="n">
+        <v>-0.1996363059387846</v>
+      </c>
+      <c r="K11" s="6" t="n">
+        <v>-0.4617340606043493</v>
+      </c>
+      <c r="L11" s="6" t="n">
+        <v>-0.397645632464803</v>
+      </c>
+      <c r="M11" s="6" t="n">
+        <v>-0.2262656090384534</v>
+      </c>
+      <c r="N11" s="6" t="n">
+        <v>-0.2494349736626481</v>
+      </c>
+      <c r="O11" s="6" t="inlineStr"/>
+      <c r="P11" s="6" t="inlineStr"/>
     </row>
     <row r="12">
-      <c r="A12" t="inlineStr">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C12" s="5" t="n">
+        <v>37.28016175842501</v>
+      </c>
+      <c r="D12" s="5" t="n">
+        <v>26.75758944840748</v>
+      </c>
+      <c r="E12" s="5" t="n">
+        <v>21.64704239904099</v>
+      </c>
+      <c r="F12" s="5" t="n">
+        <v>30.09802713340627</v>
+      </c>
+      <c r="G12" s="5" t="n">
+        <v>28.55106617314182</v>
+      </c>
+      <c r="H12" s="5" t="inlineStr"/>
+      <c r="I12" s="5" t="inlineStr"/>
+      <c r="J12" s="6" t="n">
+        <v>2.237093441555754</v>
+      </c>
+      <c r="K12" s="6" t="n">
+        <v>1.506770958374631</v>
+      </c>
+      <c r="L12" s="6" t="n">
+        <v>0.9069795825232955</v>
+      </c>
+      <c r="M12" s="6" t="n">
+        <v>1.288210773721924</v>
+      </c>
+      <c r="N12" s="6" t="n">
+        <v>3.3255982964516</v>
+      </c>
+      <c r="O12" s="6" t="inlineStr"/>
+      <c r="P12" s="6" t="inlineStr"/>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>Estimación</t>
+        </is>
+      </c>
+      <c r="C13" s="5" t="n">
+        <v>5.285406225489692</v>
+      </c>
+      <c r="D13" s="5" t="n">
+        <v>0.4149730847100852</v>
+      </c>
+      <c r="E13" s="5" t="n">
+        <v>0.3510459580509551</v>
+      </c>
+      <c r="F13" s="5" t="n">
+        <v>-0.3519295235031472</v>
+      </c>
+      <c r="G13" s="5" t="n">
+        <v>3.387801925266709</v>
+      </c>
+      <c r="H13" s="5" t="n">
+        <v>4.283510827638604</v>
+      </c>
+      <c r="I13" s="5" t="n">
+        <v>5.722373491911739</v>
+      </c>
+      <c r="J13" s="6" t="n">
+        <v>0.1846614972872608</v>
+      </c>
+      <c r="K13" s="6" t="n">
+        <v>0.01298641822355177</v>
+      </c>
+      <c r="L13" s="6" t="n">
+        <v>0.01132517368703297</v>
+      </c>
+      <c r="M13" s="6" t="n">
+        <v>-0.01083940534667757</v>
+      </c>
+      <c r="N13" s="6" t="n">
+        <v>0.1703600659597038</v>
+      </c>
+      <c r="O13" s="6" t="n">
+        <v>0.1282356276963414</v>
+      </c>
+      <c r="P13" s="6" t="n">
+        <v>0.3011841250688753</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C14" s="5" t="n">
+        <v>-0.6183535616209247</v>
+      </c>
+      <c r="D14" s="5" t="n">
+        <v>-8.009446050543202</v>
+      </c>
+      <c r="E14" s="5" t="n">
+        <v>-5.294507825079467</v>
+      </c>
+      <c r="F14" s="5" t="n">
+        <v>-6.625994160411483</v>
+      </c>
+      <c r="G14" s="5" t="n">
+        <v>-5.939473893685059</v>
+      </c>
+      <c r="H14" s="5" t="n">
+        <v>-2.480791120697849</v>
+      </c>
+      <c r="I14" s="5" t="n">
+        <v>-0.1455144168768496</v>
+      </c>
+      <c r="J14" s="6" t="n">
+        <v>-0.02078156004143562</v>
+      </c>
+      <c r="K14" s="6" t="n">
+        <v>-0.21656040791322</v>
+      </c>
+      <c r="L14" s="6" t="n">
+        <v>-0.1578367793748638</v>
+      </c>
+      <c r="M14" s="6" t="n">
+        <v>-0.1813306369732833</v>
+      </c>
+      <c r="N14" s="6" t="n">
+        <v>-0.2295060689875046</v>
+      </c>
+      <c r="O14" s="6" t="n">
+        <v>-0.06753414292084012</v>
+      </c>
+      <c r="P14" s="6" t="n">
+        <v>-0.005957020565173091</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C15" s="5" t="n">
+        <v>11.18412630650712</v>
+      </c>
+      <c r="D15" s="5" t="n">
+        <v>7.172386931273389</v>
+      </c>
+      <c r="E15" s="5" t="n">
+        <v>5.906533512545935</v>
+      </c>
+      <c r="F15" s="5" t="n">
+        <v>5.477681117210628</v>
+      </c>
+      <c r="G15" s="5" t="n">
+        <v>9.366363012966485</v>
+      </c>
+      <c r="H15" s="5" t="n">
+        <v>10.30690943944589</v>
+      </c>
+      <c r="I15" s="5" t="n">
+        <v>11.46878632195362</v>
+      </c>
+      <c r="J15" s="6" t="n">
+        <v>0.4540253841435655</v>
+      </c>
+      <c r="K15" s="6" t="n">
+        <v>0.260986854427831</v>
+      </c>
+      <c r="L15" s="6" t="n">
+        <v>0.2164330940578777</v>
+      </c>
+      <c r="M15" s="6" t="n">
+        <v>0.1854487895853896</v>
+      </c>
+      <c r="N15" s="6" t="n">
+        <v>0.6219538660762512</v>
+      </c>
+      <c r="O15" s="6" t="n">
+        <v>0.340509584429361</v>
+      </c>
+      <c r="P15" s="6" t="n">
+        <v>0.741175737757387</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
@@ -1305,12 +1266,12 @@
   </sheetData>
   <mergeCells count="7">
     <mergeCell ref="J1:P1"/>
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A10:A12"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="A6:A7"/>
     <mergeCell ref="C1:I1"/>
+    <mergeCell ref="A13:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
